--- a/src/main/resources/157-black-shop/bs-wechat-service_attribute.xlsx
+++ b/src/main/resources/157-black-shop/bs-wechat-service_attribute.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="105">
   <si>
     <t>类名</t>
   </si>
@@ -300,7 +300,10 @@
     <t>menuDelete(java.lang.String)</t>
   </si>
   <si>
-    <t>menuCreate(me.chanjar.weixin.common.bean.menu.WxMenu)</t>
+    <t>menuCreate(java.lang.String,me.chanjar.weixin.common.bean.menu.WxMenu)</t>
+  </si>
+  <si>
+    <t>java.lang.String,me.chanjar.weixin.common.bean.menu.WxMenu</t>
   </si>
   <si>
     <t>getSelfMenuInfo(java.lang.String)</t>
@@ -1195,7 +1198,7 @@
         <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
         <v>79</v>
@@ -1209,7 +1212,7 @@
         <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1218,7 +1221,7 @@
         <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
@@ -1226,7 +1229,7 @@
         <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1235,7 +1238,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -1243,7 +1246,7 @@
         <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
         <v>78</v>
@@ -1257,10 +1260,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -1274,10 +1277,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
